--- a/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.305785100884614</v>
+        <v>0.694214899115386</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.924964721926802</v>
+        <v>0.075035278073198</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.195786754862016</v>
+        <v>0.804213245137984</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.999847259197051</v>
+        <v>0.000152740802949</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0250963805301211</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.7328767123287671</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.405</v>
+        <v>9.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0115784409397275</v>
+        <v>0.106104750512645</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.103235813583306</v>
+        <v>0.0081581280514701</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0547830672618584</v>
+        <v>0.440688525270802</v>
       </c>
       <c r="N30" t="n">
-        <v>2.85887430610555</v>
+        <v>1.11689211065942</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.01592319991439</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>103</v>
+        <v>1.32</v>
       </c>
       <c r="K31" t="n">
-        <v>0.389673120030451</v>
+        <v>-0.0433109636865466</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.01030686450911</v>
+        <v>-0.08082514406418589</v>
       </c>
       <c r="M31" t="n">
-        <v>4.10339183315924</v>
+        <v>-0.0087444792303957</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378323417505292</v>
+        <v>-3.28113361261717</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.889664319040077</v>
+        <v>0.0046570267699229</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0275862068965517</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.751724137931034</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>5.52</v>
+        <v>590</v>
       </c>
       <c r="K32" t="n">
-        <v>0.455834895643733</v>
+        <v>28.7825486363236</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.39982356297582</v>
+        <v>10.9837632044808</v>
       </c>
       <c r="M32" t="n">
-        <v>0.74638586320353</v>
+        <v>47.870249017038</v>
       </c>
       <c r="N32" t="n">
-        <v>8.25787854427052</v>
+        <v>4.87839807395315</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3363,7 +3375,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,7 +3386,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.232756084937093</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3386,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.446</v>
+        <v>0.405</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0251517347300561</v>
+        <v>0.0115784409397275</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.048429271836433</v>
+        <v>-0.103235813583306</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0072125232548163</v>
+        <v>0.0547830672618584</v>
       </c>
       <c r="N33" t="n">
-        <v>-5.63940240584218</v>
+        <v>2.85887430610555</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3462,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6061921166488971</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34" t="n">
-        <v>0.199372270742358</v>
+        <v>0.389673120030451</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.13828957540268</v>
+        <v>-2.01030686450911</v>
       </c>
       <c r="M34" t="n">
-        <v>1.53810777824152</v>
+        <v>4.10339183315924</v>
       </c>
       <c r="N34" t="n">
-        <v>0.195463010531724</v>
+        <v>0.378323417505292</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3537,7 +3549,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3548,7 +3560,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.874273906745989</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3560,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.266</v>
+        <v>5.52</v>
       </c>
       <c r="K35" t="n">
-        <v>0.181591389319176</v>
+        <v>0.455834895643733</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0552367655810253</v>
+        <v>-0.39982356297582</v>
       </c>
       <c r="M35" t="n">
-        <v>0.469741407120262</v>
+        <v>0.74638586320353</v>
       </c>
       <c r="N35" t="n">
-        <v>3.44837427495588</v>
+        <v>8.25787854427052</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3611,6 +3623,267 @@
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.232756084937093</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0251517347300561</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.048429271836433</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0072125232548163</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-5.63940240584218</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6061921166488971</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>102</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.199372270742358</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1.13828957540268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.53810777824152</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.195463010531724</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.874273906745989</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.266</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.181591389319176</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0552367655810253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.469741407120262</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.44837427495588</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.795450337932873</v>
+        <v>0.998656022492682</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.914893617021277</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.35403151065802</v>
+        <v>-5.86698341836735</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.96423385764118</v>
+        <v>-10.0695872775862</v>
       </c>
       <c r="M2" t="n">
-        <v>0.675124192266563</v>
+        <v>-1.40413686628599</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.52239728143343</v>
+        <v>-97.7830569727891</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.256711169891431</v>
+        <v>0.114974319838629</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.03125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.974358974358974</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0401373626373627</v>
+        <v>-0.0832951950434262</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.220732070288377</v>
+        <v>-0.26232112105607</v>
       </c>
       <c r="M3" t="n">
-        <v>0.105202664840408</v>
+        <v>0.0327056134818295</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.01717032967033</v>
+        <v>-13.434708877972</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.694214899115386</v>
+        <v>0.844470981686881</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.07</v>
+        <v>10.11</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0332784462373069</v>
+        <v>0.0802747252747253</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.07075525550025941</v>
+        <v>-0.0540514502452174</v>
       </c>
       <c r="M4" t="n">
-        <v>0.113753011384455</v>
+        <v>0.13362611140116</v>
       </c>
       <c r="N4" t="n">
-        <v>0.330471164223504</v>
+        <v>0.794013108553169</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.234663468277801</v>
+        <v>0.9997428138759989</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.915254237288136</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.259</v>
+        <v>0.242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0169814706147874</v>
+        <v>-0.0526802884615385</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0378766535970905</v>
+        <v>-0.09937696901328941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0461574926968899</v>
+        <v>-0.0373121814743</v>
       </c>
       <c r="N5" t="n">
-        <v>6.55655236092178</v>
+        <v>-21.7687142403051</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.50521950465553</v>
+        <v>0.701894494653919</v>
       </c>
       <c r="G6" t="n">
         <v>0.0677966101694915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.813559322033898</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>820</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-18.2018272425249</v>
       </c>
       <c r="L6" t="n">
-        <v>-79.7968535414179</v>
+        <v>-97.1330061760292</v>
       </c>
       <c r="M6" t="n">
-        <v>96.2941730070104</v>
+        <v>56.9408445748287</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-3.03363787375415</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.350205483364923</v>
+        <v>0.785618653153498</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.131957843738306</v>
+        <v>0.10151544653791</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0039587783069056</v>
+        <v>-0.0069674304855692</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0139184958875111</v>
+        <v>-0.0221046617153896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0294794458545674</v>
+        <v>0.008229166008502899</v>
       </c>
       <c r="N7" t="n">
-        <v>3.00003258219082</v>
+        <v>-6.86341903935508</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.212428317639825</v>
+        <v>0.379263731856747</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.041</v>
+        <v>0.049</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0040009536641702</v>
+        <v>0.0010870535714285</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0030767108345693</v>
+        <v>-0.0040802714378346</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0089927335432481</v>
+        <v>0.0082649749809458</v>
       </c>
       <c r="N8" t="n">
-        <v>9.75842357114689</v>
+        <v>2.21847667638484</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.741998532278207</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.797</v>
+        <v>0.839</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0162270011184447</v>
+        <v>0.0466980014298713</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0633550859066058</v>
+        <v>-0.0167524903989538</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0266883821144974</v>
+        <v>0.0789681940209862</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.03601017797298</v>
+        <v>5.56591197018728</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.075035278073198</v>
+        <v>0.181597642591925</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.728813559322034</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.69</v>
+        <v>7.62</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0293138041733549</v>
+        <v>-0.016512206148282</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.062909519002718</v>
+        <v>-0.0487727754094385</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0039009681426094</v>
+        <v>0.0150065905749033</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.381193812397333</v>
+        <v>-0.216695618743859</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1394,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.205</v>
+        <v>1.233</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0184964215720585</v>
+        <v>0.015051510989011</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.104263414305674</v>
+        <v>-0.119613649639105</v>
       </c>
       <c r="M11" t="n">
-        <v>0.146382511984097</v>
+        <v>0.101932365354703</v>
       </c>
       <c r="N11" t="n">
-        <v>1.53497274456917</v>
+        <v>1.22072270794899</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.346960106475508</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.474576271186441</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>1.52</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.009562982300342899</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.8387376097363199</v>
+        <v>-0.0960902807881619</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05403013121017</v>
+        <v>0.0796943591858148</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.629143572390982</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.155529018313119</v>
+        <v>0.999652992743575</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.864406779661017</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>0.312</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0376287774725274</v>
+        <v>-0.0511751373626373</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0249676430695898</v>
+        <v>-0.08454488240872381</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09628511210539829</v>
+        <v>-0.0281709343248708</v>
       </c>
       <c r="N13" t="n">
-        <v>2.50858516483516</v>
+        <v>-16.4022876162299</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.139508156605682</v>
+        <v>0.250288682037725</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.949152542372881</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.353</v>
+        <v>2.65</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0143388810632043</v>
+        <v>0.10208850931677</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0190549124126235</v>
+        <v>-0.248019694930909</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06898245246017851</v>
+        <v>0.540175446903811</v>
       </c>
       <c r="N14" t="n">
-        <v>4.0620059669134</v>
+        <v>3.85239657799132</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.772015710074701</v>
+        <v>0.984248343055056</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.029126213592233</v>
       </c>
       <c r="H15" t="n">
+        <v>0.776699029126214</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.52</v>
+        <v>7.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.172677286742035</v>
+        <v>-0.529301858342807</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.641772033193899</v>
+        <v>-1.20134779595485</v>
       </c>
       <c r="M15" t="n">
-        <v>0.179600383059901</v>
+        <v>-0.0515570805589921</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.85227328341409</v>
+        <v>-7.05735811123742</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.549113963379368</v>
+        <v>0.001736226289713</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="H16" t="n">
-        <v>0.798076923076923</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>11.25</v>
+        <v>1.185</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.006070457120385</v>
+        <v>-0.08765888863532641</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.622082926734113</v>
+        <v>-0.137943349753695</v>
       </c>
       <c r="M16" t="n">
-        <v>0.250581132988309</v>
+        <v>-0.0438673815840412</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0539596188478668</v>
+        <v>-7.39737456838197</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.003510786976588</v>
+        <v>0.957181808240416</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0106382978723404</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.872340425531915</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.275</v>
+        <v>9.914999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08153711006735199</v>
+        <v>0.0301030219780213</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.123322494928515</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0322386659330635</v>
+        <v>0.0551888736263738</v>
       </c>
       <c r="N17" t="n">
-        <v>-6.3950674562629</v>
+        <v>0.303610912536776</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.804213245137984</v>
+        <v>0.114557817860113</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.846153846153846</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.92</v>
+        <v>0.207</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0139942528735633</v>
+        <v>0.0041676175262437</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0212543484326974</v>
+        <v>-0.0019488198011525</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0429964422749361</v>
+        <v>0.0116234860668088</v>
       </c>
       <c r="N18" t="n">
-        <v>0.141071097515759</v>
+        <v>2.01334180011774</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0183493950621656</v>
+        <v>0.265177438126805</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H19" t="n">
-        <v>0.906779661016949</v>
+        <v>0.773109243697479</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.242</v>
+        <v>650</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0094610211706102</v>
+        <v>6.64695177434031</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0019521910243958</v>
+        <v>-12.6595966641596</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0171269912761592</v>
+        <v>29.7755546303492</v>
       </c>
       <c r="N19" t="n">
-        <v>3.90951288041744</v>
+        <v>1.02260796528312</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.170703198527689</v>
+        <v>0.96317736806823</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.09649122807017541</v>
       </c>
       <c r="H20" t="n">
-        <v>0.779661016949153</v>
+        <v>0.903508771929825</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>658</v>
+        <v>0.17367856181986</v>
       </c>
       <c r="K20" t="n">
-        <v>16.2567243035543</v>
+        <v>-0.0114366118002588</v>
       </c>
       <c r="L20" t="n">
-        <v>-11.6975692088103</v>
+        <v>-0.0244498998586491</v>
       </c>
       <c r="M20" t="n">
-        <v>46.5453914105493</v>
+        <v>-0.0001079411531335</v>
       </c>
       <c r="N20" t="n">
-        <v>2.47062679385323</v>
+        <v>-6.58493004572483</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.912437737790567</v>
+        <v>0.208328451986356</v>
       </c>
       <c r="G21" t="n">
-        <v>0.106194690265487</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.893805309734513</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.189174115663585</v>
+        <v>0.043</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0093239641493412</v>
+        <v>0.0006668188041989</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0259987780191523</v>
+        <v>-0.0011999926707962</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0010910296629883</v>
+        <v>0.0025882354598514</v>
       </c>
       <c r="N21" t="n">
-        <v>-4.92877374720885</v>
+        <v>1.55074140511395</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.436783183491467</v>
+        <v>0.125322943079943</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008474576271186401</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.686440677966102</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.041</v>
+        <v>0.771</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0106923302107728</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0019941344248044</v>
+        <v>-0.0037450947120826</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0018068173110287</v>
+        <v>0.0247514164277375</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.38681325690958</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.151531273610423</v>
+        <v>0.0004352763230389</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.966101694915254</v>
+        <v>0.550847457627119</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.734</v>
+        <v>7.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009064354395604299</v>
+        <v>-0.0212108013937281</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0049252457492695</v>
+        <v>-0.0318459776973551</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0243020244381409</v>
+        <v>-0.0110142568065811</v>
       </c>
       <c r="N23" t="n">
-        <v>1.23492566697607</v>
+        <v>-0.275464953165301</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.000152740802949</v>
+        <v>0.942444115207539</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.547008547008547</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.72</v>
+        <v>1.34</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0222036474164134</v>
+        <v>-0.0358159532105525</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0353024076663351</v>
+        <v>-0.0745624741305219</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0124829118250172</v>
+        <v>0.0010902253421936</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.287612013165977</v>
+        <v>-2.67283232914571</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.844738312049819</v>
+        <v>0.9615229119616761</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.949152542372881</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.373</v>
+        <v>1.67</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0246790540540542</v>
+        <v>-0.0391951710261569</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.06775740515928071</v>
+        <v>-0.0757087590499468</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0155031867233974</v>
+        <v>-0.0026844723441277</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.79745477451232</v>
+        <v>-2.34701622911119</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.181671650871494</v>
+        <v>0.0400696676704866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.338983050847458</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>0.265</v>
       </c>
       <c r="K26" t="n">
-        <v>0.111136593411579</v>
+        <v>0.0070240384615384</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0010080619036486</v>
       </c>
       <c r="M26" t="n">
-        <v>0.421810899908745</v>
+        <v>0.0155809980870649</v>
       </c>
       <c r="N26" t="n">
-        <v>2.22273186823157</v>
+        <v>2.65058055152395</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.893329850256815</v>
+        <v>0.0473652213965874</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.855932203389831</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.715</v>
+        <v>2.76</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0326116071428572</v>
+        <v>0.111449375866852</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.070629151645658</v>
+        <v>0.0066458453752213</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0098493119880499</v>
+        <v>0.213003371056543</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.90155143690129</v>
+        <v>4.038020864741</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0065111233887633</v>
+        <v>0.304127921249655</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="H28" t="n">
-        <v>0.915254237288136</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3145</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0134104162090929</v>
+        <v>0.009686637173327</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0041960265030967</v>
+        <v>-0.112119380371511</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0233678885062574</v>
+        <v>0.106951391182423</v>
       </c>
       <c r="N28" t="n">
-        <v>4.26404330972747</v>
+        <v>0.13838053104753</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.289599497087188</v>
+        <v>0.000130676919452</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H29" t="n">
-        <v>0.940677966101695</v>
+        <v>0.780701754385965</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.54</v>
+        <v>1.26</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0368577236218594</v>
+        <v>-0.0743822188449848</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0739374155029113</v>
+        <v>-0.109548829115472</v>
       </c>
       <c r="M29" t="n">
-        <v>0.131807746039532</v>
+        <v>-0.0481020614112556</v>
       </c>
       <c r="N29" t="n">
-        <v>1.45109148117557</v>
+        <v>-5.90335070198292</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0250963805301211</v>
+        <v>0.0046249356902776</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0275862068965517</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7328767123287671</v>
+        <v>0.744827586206897</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>9.5</v>
+        <v>590</v>
       </c>
       <c r="K30" t="n">
-        <v>0.106104750512645</v>
+        <v>18.5923645320197</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0081581280514701</v>
+        <v>7.25504811229149</v>
       </c>
       <c r="M30" t="n">
-        <v>0.440688525270802</v>
+        <v>37.0742928800535</v>
       </c>
       <c r="N30" t="n">
-        <v>1.11689211065942</v>
+        <v>3.15124822576605</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.01592319991439</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0336134453781513</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.739495798319328</v>
-      </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.32</v>
+        <v>0.455</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0433109636865466</v>
+        <v>0.0411099759187538</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.08082514406418589</v>
+        <v>-0.103235813583306</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0087444792303957</v>
+        <v>0.104371154992199</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.28113361261717</v>
+        <v>9.03515954258326</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,11 +3266,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3280,11 +3276,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0046570267699229</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0275862068965517</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.751724137931034</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>590</v>
+        <v>103</v>
       </c>
       <c r="K32" t="n">
-        <v>28.7825486363236</v>
+        <v>3.40891895583859</v>
       </c>
       <c r="L32" t="n">
-        <v>10.9837632044808</v>
+        <v>-1.83264648434927</v>
       </c>
       <c r="M32" t="n">
-        <v>47.870249017038</v>
+        <v>5.61471443682918</v>
       </c>
       <c r="N32" t="n">
-        <v>4.87839807395315</v>
+        <v>3.30963005421222</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3353,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,7 +3363,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,7 +3378,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.59675202974633</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3398,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.405</v>
+        <v>5.97</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0115784409397275</v>
+        <v>0.339487714140534</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.103235813583306</v>
+        <v>-0.39982356297582</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0547830672618584</v>
+        <v>0.593123608619845</v>
       </c>
       <c r="N33" t="n">
-        <v>2.85887430610555</v>
+        <v>5.68656137588834</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3411,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3458,11 +3450,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3473,7 +3465,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3485,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103</v>
+        <v>0.4505</v>
       </c>
       <c r="K34" t="n">
-        <v>0.389673120030451</v>
+        <v>-0.008312248995983901</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.01030686450911</v>
+        <v>-0.0443128412226004</v>
       </c>
       <c r="M34" t="n">
-        <v>4.10339183315924</v>
+        <v>0.0277748195021313</v>
       </c>
       <c r="N34" t="n">
-        <v>0.378323417505292</v>
+        <v>-1.84511631431386</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3545,11 +3537,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3560,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.889664319040077</v>
+        <v>0.9560192628459599</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.52</v>
+        <v>102</v>
       </c>
       <c r="K35" t="n">
-        <v>0.455834895643733</v>
+        <v>1.55416137805984</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.39982356297582</v>
+        <v>0.0552592861798386</v>
       </c>
       <c r="M35" t="n">
-        <v>0.74638586320353</v>
+        <v>3.09646425957295</v>
       </c>
       <c r="N35" t="n">
-        <v>8.25787854427052</v>
+        <v>1.52368762554886</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3593,7 +3585,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3624,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3647,7 +3639,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.232756084937093</v>
+        <v>0.963180864939849</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3659,19 +3651,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.446</v>
+        <v>5.393</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0251517347300561</v>
+        <v>0.252184499314129</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.048429271836433</v>
+        <v>0.0473536172313144</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0072125232548163</v>
+        <v>0.539253326412848</v>
       </c>
       <c r="N36" t="n">
-        <v>-5.63940240584218</v>
+        <v>4.67614499006358</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3672,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3710,180 +3702,6 @@
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mangatera at d/s Dannevirke STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.6061921166488971</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>102</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.199372270742358</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-1.13828957540268</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.53810777824152</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.195463010531724</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1863908.8</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5542493.4</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangatera at d/s Dannevirke STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>10</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.874273906745989</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.266</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.181591389319176</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0552367655810253</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.469741407120262</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.44837427495588</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1863908.8</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5542493.4</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/trend_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -139,43 +139,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -657,37 +666,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.998656022492682</v>
+        <v>0.988496587720707</v>
       </c>
       <c r="G2">
-        <v>0.0612244897959184</v>
+        <v>0.0930232558139535</v>
       </c>
       <c r="H2">
-        <v>0.857142857142857</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>4.15</v>
       </c>
       <c r="K2">
-        <v>-5.86698341836735</v>
+        <v>-1.9974609375</v>
       </c>
       <c r="L2">
-        <v>-10.0695872775862</v>
+        <v>-5.66734207312282</v>
       </c>
       <c r="M2">
-        <v>-1.40413686628599</v>
+        <v>-0.138005462694374</v>
       </c>
       <c r="N2">
-        <v>-97.7830569727891</v>
+        <v>-48.1315888554217</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>1863908.8</v>
@@ -696,19 +705,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,37 +737,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.114974319838629</v>
+        <v>0.030312408283383</v>
       </c>
       <c r="G3">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>-0.0832951950434262</v>
+        <v>-0.100468056787933</v>
       </c>
       <c r="L3">
-        <v>-0.26232112105607</v>
+        <v>-0.300443395711288</v>
       </c>
       <c r="M3">
-        <v>0.0327056134818295</v>
+        <v>-0.0197458043302557</v>
       </c>
       <c r="N3">
-        <v>-13.434708877972</v>
+        <v>-33.4893522626442</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1863908.8</v>
@@ -767,19 +776,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,7 +808,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.844470981686881</v>
+        <v>0.989705533179159</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -811,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.11</v>
+        <v>10.27</v>
       </c>
       <c r="K4">
-        <v>0.0802747252747253</v>
+        <v>0.118366871981521</v>
       </c>
       <c r="L4">
-        <v>-0.0540514502452174</v>
+        <v>0.0246164351865552</v>
       </c>
       <c r="M4">
-        <v>0.13362611140116</v>
+        <v>0.202523923843403</v>
       </c>
       <c r="N4">
-        <v>0.794013108553169</v>
+        <v>1.15254987323779</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1863908.8</v>
@@ -838,19 +847,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,43 +873,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.9997428138759989</v>
+        <v>0.983231331357491</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.242</v>
+        <v>0.198</v>
       </c>
       <c r="K5">
-        <v>-0.0526802884615385</v>
+        <v>-0.0291101503759398</v>
       </c>
       <c r="L5">
-        <v>-0.09937696901328941</v>
+        <v>-0.06339987415022411</v>
       </c>
       <c r="M5">
-        <v>-0.0373121814743</v>
+        <v>-0.0078441487778378</v>
       </c>
       <c r="N5">
-        <v>-21.7687142403051</v>
+        <v>-14.7020961494646</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1863908.8</v>
@@ -909,19 +918,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,37 +950,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.701894494653919</v>
+        <v>0.724812697400434</v>
       </c>
       <c r="G6">
-        <v>0.0677966101694915</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H6">
-        <v>0.864406779661017</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
-        <v>600</v>
+        <v>632.8</v>
       </c>
       <c r="K6">
-        <v>-18.2018272425249</v>
+        <v>-30.6932773109244</v>
       </c>
       <c r="L6">
-        <v>-97.1330061760292</v>
+        <v>-125.038526002063</v>
       </c>
       <c r="M6">
-        <v>56.9408445748287</v>
+        <v>52.1070768548423</v>
       </c>
       <c r="N6">
-        <v>-3.03363787375415</v>
+        <v>-4.85039148402724</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1863908.8</v>
@@ -980,19 +989,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,37 +1021,37 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>0.785618653153498</v>
+        <v>0.991885454335073</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H7">
-        <v>0.981818181818182</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.10151544653791</v>
+        <v>0.078901741505515</v>
       </c>
       <c r="K7">
-        <v>-0.0069674304855692</v>
+        <v>-0.0228871799130344</v>
       </c>
       <c r="L7">
-        <v>-0.0221046617153896</v>
+        <v>-0.0462857961233102</v>
       </c>
       <c r="M7">
-        <v>0.008229166008502899</v>
+        <v>-0.0048639085593454</v>
       </c>
       <c r="N7">
-        <v>-6.86341903935508</v>
+        <v>-29.0071923335617</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1863908.8</v>
@@ -1051,19 +1060,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,37 +1092,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.379263731856747</v>
+        <v>0.998992616714422</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.847457627118644</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="K8">
-        <v>0.0010870535714285</v>
+        <v>-0.0107216242661448</v>
       </c>
       <c r="L8">
-        <v>-0.0040802714378346</v>
+        <v>-0.0189562560675149</v>
       </c>
       <c r="M8">
-        <v>0.0082649749809458</v>
+        <v>-0.0042116075264047</v>
       </c>
       <c r="N8">
-        <v>2.21847667638484</v>
+        <v>-22.336717221135</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1863908.8</v>
@@ -1122,19 +1131,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,7 +1163,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.109935855314351</v>
+        <v>0.414296537609323</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1166,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.839</v>
+        <v>0.762</v>
       </c>
       <c r="K9">
-        <v>0.0466980014298713</v>
+        <v>0.0117662277814352</v>
       </c>
       <c r="L9">
-        <v>-0.0167524903989538</v>
+        <v>-0.0246823621846994</v>
       </c>
       <c r="M9">
-        <v>0.0789681940209862</v>
+        <v>0.0368484338172633</v>
       </c>
       <c r="N9">
-        <v>5.56591197018728</v>
+        <v>1.54412438076577</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1863908.8</v>
@@ -1193,19 +1202,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,13 +1234,13 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.181597642591925</v>
+        <v>0.678857222759968</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.76271186440678</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1240,22 +1249,22 @@
         <v>7.62</v>
       </c>
       <c r="K10">
-        <v>-0.016512206148282</v>
+        <v>0.008794141252006201</v>
       </c>
       <c r="L10">
-        <v>-0.0487727754094385</v>
+        <v>-0.0237936130737091</v>
       </c>
       <c r="M10">
-        <v>0.0150065905749033</v>
+        <v>0.0401373626373628</v>
       </c>
       <c r="N10">
-        <v>-0.216695618743859</v>
+        <v>0.115408677847851</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1863908.8</v>
@@ -1264,16 +1273,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,37 +1302,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.359108064766993</v>
+        <v>0.97432583371837</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.966101694915254</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.233</v>
+        <v>1.165</v>
       </c>
       <c r="K11">
-        <v>0.015051510989011</v>
+        <v>-0.126301174250507</v>
       </c>
       <c r="L11">
-        <v>-0.119613649639105</v>
+        <v>-0.208335220065811</v>
       </c>
       <c r="M11">
-        <v>0.101932365354703</v>
+        <v>-0.0302022628440754</v>
       </c>
       <c r="N11">
-        <v>1.22072270794899</v>
+        <v>-10.8413025107731</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1863908.8</v>
@@ -1332,19 +1341,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.442467978937887</v>
+        <v>0.964401555362374</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="K12">
-        <v>0.009562982300342899</v>
+        <v>-0.09353895322173821</v>
       </c>
       <c r="L12">
-        <v>-0.0960902807881619</v>
+        <v>-0.205832012985297</v>
       </c>
       <c r="M12">
-        <v>0.0796943591858148</v>
+        <v>-0.0160962844154402</v>
       </c>
       <c r="N12">
-        <v>0.629143572390982</v>
+        <v>-6.58725022688297</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1863908.8</v>
@@ -1403,19 +1412,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,43 +1438,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.999652992743575</v>
+        <v>0.988177720011156</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.312</v>
+        <v>0.252</v>
       </c>
       <c r="K13">
-        <v>-0.0511751373626373</v>
+        <v>-0.0317963169642857</v>
       </c>
       <c r="L13">
-        <v>-0.08454488240872381</v>
+        <v>-0.06612022972654551</v>
       </c>
       <c r="M13">
-        <v>-0.0281709343248708</v>
+        <v>-0.0103416290729162</v>
       </c>
       <c r="N13">
-        <v>-16.4022876162299</v>
+        <v>-12.6175860969388</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1863908.8</v>
@@ -1474,19 +1483,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,13 +1509,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.250288682037725</v>
+        <v>0.0355984446376258</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1521,22 +1530,22 @@
         <v>2.65</v>
       </c>
       <c r="K14">
-        <v>0.10208850931677</v>
+        <v>0.646798595565957</v>
       </c>
       <c r="L14">
-        <v>-0.248019694930909</v>
+        <v>0.0374047583981905</v>
       </c>
       <c r="M14">
-        <v>0.540175446903811</v>
+        <v>1.27444225292646</v>
       </c>
       <c r="N14">
-        <v>3.85239657799132</v>
+        <v>24.4074941723003</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1863908.8</v>
@@ -1545,19 +1554,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,40 +1583,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>0.984248343055056</v>
+        <v>0.985568867985165</v>
       </c>
       <c r="G15">
-        <v>0.029126213592233</v>
+        <v>0.0412371134020619</v>
       </c>
       <c r="H15">
-        <v>0.776699029126214</v>
+        <v>0.77319587628866</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>-0.529301858342807</v>
+        <v>-0.421932783797062</v>
       </c>
       <c r="L15">
-        <v>-1.20134779595485</v>
+        <v>-0.958596555649824</v>
       </c>
       <c r="M15">
-        <v>-0.0515570805589921</v>
+        <v>-0.0466149640418024</v>
       </c>
       <c r="N15">
-        <v>-7.05735811123742</v>
+        <v>-6.02761119710089</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1863908.8</v>
@@ -1616,19 +1625,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,43 +1651,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.001736226289713</v>
+        <v>0.0002008216996619</v>
       </c>
       <c r="G16">
-        <v>0.0111111111111111</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="H16">
-        <v>0.888888888888889</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.185</v>
+        <v>1.094</v>
       </c>
       <c r="K16">
-        <v>-0.08765888863532641</v>
+        <v>-0.119483769673123</v>
       </c>
       <c r="L16">
-        <v>-0.137943349753695</v>
+        <v>-0.18483699177019</v>
       </c>
       <c r="M16">
-        <v>-0.0438673815840412</v>
+        <v>-0.0585440982843547</v>
       </c>
       <c r="N16">
-        <v>-7.39737456838197</v>
+        <v>-10.9217339737773</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1863908.8</v>
@@ -1687,19 +1696,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.957181808240416</v>
+        <v>0.998465425342236</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1731,25 +1740,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.914999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="K17">
-        <v>0.0301030219780213</v>
+        <v>0.0524779379588661</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0200474233129297</v>
       </c>
       <c r="M17">
-        <v>0.0551888736263738</v>
+        <v>0.08850701847362751</v>
       </c>
       <c r="N17">
-        <v>0.303610912536776</v>
+        <v>0.523209750337648</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1863908.8</v>
@@ -1758,19 +1767,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.114557817860113</v>
+        <v>0.479163553563428</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1802,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.207</v>
+        <v>0.192</v>
       </c>
       <c r="K18">
-        <v>0.0041676175262437</v>
+        <v>0.0004013736263736</v>
       </c>
       <c r="L18">
-        <v>-0.0019488198011525</v>
+        <v>-0.0091000703345446</v>
       </c>
       <c r="M18">
-        <v>0.0116234860668088</v>
+        <v>0.0069788262809167</v>
       </c>
       <c r="N18">
-        <v>2.01334180011774</v>
+        <v>0.209048763736264</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1863908.8</v>
@@ -1829,19 +1838,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,43 +1864,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.265177438126805</v>
+        <v>0.359214308270205</v>
       </c>
       <c r="G19">
-        <v>0.0336134453781513</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H19">
-        <v>0.773109243697479</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>650</v>
+        <v>657.8</v>
       </c>
       <c r="K19">
-        <v>6.64695177434031</v>
+        <v>5.86276083467095</v>
       </c>
       <c r="L19">
-        <v>-12.6595966641596</v>
+        <v>-20.7802482850866</v>
       </c>
       <c r="M19">
-        <v>29.7755546303492</v>
+        <v>37.4758626251721</v>
       </c>
       <c r="N19">
-        <v>1.02260796528312</v>
+        <v>0.891267989460466</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1863908.8</v>
@@ -1900,19 +1909,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,34 +1941,34 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.96317736806823</v>
+        <v>0.999987017563401</v>
       </c>
       <c r="G20">
-        <v>0.09649122807017541</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="H20">
-        <v>0.903508771929825</v>
+        <v>0.921052631578947</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.17367856181986</v>
+        <v>0.159940120305887</v>
       </c>
       <c r="K20">
-        <v>-0.0114366118002588</v>
+        <v>-0.0262147093172632</v>
       </c>
       <c r="L20">
-        <v>-0.0244498998586491</v>
+        <v>-0.0383724212247443</v>
       </c>
       <c r="M20">
-        <v>-0.0001079411531335</v>
+        <v>-0.0143547652979723</v>
       </c>
       <c r="N20">
-        <v>-6.58493004572483</v>
+        <v>-16.3903273719735</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
         <v>48</v>
@@ -1971,19 +1980,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,43 +2006,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.208328451986356</v>
+        <v>0.789973499432189</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.680672268907563</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="K21">
-        <v>0.0006668188041989</v>
+        <v>-0.0007480798771121</v>
       </c>
       <c r="L21">
-        <v>-0.0011999926707962</v>
+        <v>-0.0026463664479621</v>
       </c>
       <c r="M21">
-        <v>0.0025882354598514</v>
+        <v>0.0008429716626272</v>
       </c>
       <c r="N21">
-        <v>1.55074140511395</v>
+        <v>-1.82458506612716</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1863908.8</v>
@@ -2042,19 +2051,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,7 +2083,7 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.125322943079943</v>
+        <v>0.622975212642385</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2086,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.771</v>
+        <v>0.762</v>
       </c>
       <c r="K22">
-        <v>0.0106923302107728</v>
+        <v>-0.0023218215994532</v>
       </c>
       <c r="L22">
-        <v>-0.0037450947120826</v>
+        <v>-0.0162278544004215</v>
       </c>
       <c r="M22">
-        <v>0.0247514164277375</v>
+        <v>0.0106923835280086</v>
       </c>
       <c r="N22">
-        <v>1.38681325690958</v>
+        <v>-0.30470099730357</v>
       </c>
       <c r="O22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1863908.8</v>
@@ -2113,19 +2122,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,7 +2154,7 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0004352763230389</v>
+        <v>0.003454659489711</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2160,22 +2169,22 @@
         <v>7.7</v>
       </c>
       <c r="K23">
-        <v>-0.0212108013937281</v>
+        <v>-0.0174315940184536</v>
       </c>
       <c r="L23">
-        <v>-0.0318459776973551</v>
+        <v>-0.0276441154210871</v>
       </c>
       <c r="M23">
-        <v>-0.0110142568065811</v>
+        <v>-0.0071316536648322</v>
       </c>
       <c r="N23">
-        <v>-0.275464953165301</v>
+        <v>-0.226384337901995</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q23">
         <v>1863908.8</v>
@@ -2184,16 +2193,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.942444115207539</v>
+        <v>0.9999950444918539</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2225,25 +2234,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.34</v>
+        <v>1.319</v>
       </c>
       <c r="K24">
-        <v>-0.0358159532105525</v>
+        <v>-0.0965200451722191</v>
       </c>
       <c r="L24">
-        <v>-0.0745624741305219</v>
+        <v>-0.135899717140182</v>
       </c>
       <c r="M24">
-        <v>0.0010902253421936</v>
+        <v>-0.0615534753714868</v>
       </c>
       <c r="N24">
-        <v>-2.67283232914571</v>
+        <v>-7.31766832238204</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1863908.8</v>
@@ -2252,19 +2261,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,34 +2293,34 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.9615229119616761</v>
+        <v>0.999987119889774</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.823529411764706</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.67</v>
+        <v>1.661</v>
       </c>
       <c r="K25">
-        <v>-0.0391951710261569</v>
+        <v>-0.09633812030075189</v>
       </c>
       <c r="L25">
-        <v>-0.0757087590499468</v>
+        <v>-0.134224017612606</v>
       </c>
       <c r="M25">
-        <v>-0.0026844723441277</v>
+        <v>-0.0584543004879643</v>
       </c>
       <c r="N25">
-        <v>-2.34701622911119</v>
+        <v>-5.80000724267019</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
         <v>48</v>
@@ -2323,19 +2332,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0400696676704866</v>
+        <v>0.282719053431976</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2367,25 +2376,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.265</v>
+        <v>0.251</v>
       </c>
       <c r="K26">
-        <v>0.0070240384615384</v>
+        <v>0.0037695545898968</v>
       </c>
       <c r="L26">
-        <v>0.0010080619036486</v>
+        <v>-0.0068215884292508</v>
       </c>
       <c r="M26">
-        <v>0.0155809980870649</v>
+        <v>0.0096675618786026</v>
       </c>
       <c r="N26">
-        <v>2.65058055152395</v>
+        <v>1.50181457764813</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1863908.8</v>
@@ -2394,19 +2403,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2435,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0473652213965874</v>
+        <v>0.06497443599713119</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.915966386554622</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="K27">
-        <v>0.111449375866852</v>
+        <v>0.08501939753537199</v>
       </c>
       <c r="L27">
-        <v>0.0066458453752213</v>
+        <v>-0.0066896628351677</v>
       </c>
       <c r="M27">
-        <v>0.213003371056543</v>
+        <v>0.21323024740518</v>
       </c>
       <c r="N27">
-        <v>4.038020864741</v>
+        <v>3.20827915227819</v>
       </c>
       <c r="O27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q27">
         <v>1863908.8</v>
@@ -2465,19 +2474,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>0.304127921249655</v>
+        <v>0.49294726287751</v>
       </c>
       <c r="G28">
-        <v>0.0192307692307692</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="H28">
-        <v>0.717948717948718</v>
+        <v>0.718954248366013</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2512,22 +2521,22 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>0.009686637173327</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.112119380371511</v>
+        <v>-0.158737636160811</v>
       </c>
       <c r="M28">
-        <v>0.106951391182423</v>
+        <v>0.0458495606922579</v>
       </c>
       <c r="N28">
-        <v>0.13838053104753</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q28">
         <v>1863908.8</v>
@@ -2536,19 +2545,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,37 +2577,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.000130676919452</v>
+        <v>2.15034135497838E-06</v>
       </c>
       <c r="G29">
-        <v>0.0087719298245614</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H29">
-        <v>0.780701754385965</v>
+        <v>0.786324786324786</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="K29">
-        <v>-0.0743822188449848</v>
+        <v>-0.0920857403631881</v>
       </c>
       <c r="L29">
-        <v>-0.109548829115472</v>
+        <v>-0.119842853075745</v>
       </c>
       <c r="M29">
-        <v>-0.0481020614112556</v>
+        <v>-0.0613554637001688</v>
       </c>
       <c r="N29">
-        <v>-5.90335070198292</v>
+        <v>-8.22194110385608</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <v>1863908.8</v>
@@ -2607,19 +2616,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,37 +2648,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0046249356902776</v>
+        <v>0.0070586020574176</v>
       </c>
       <c r="G30">
-        <v>0.0275862068965517</v>
+        <v>0.0324675324675325</v>
       </c>
       <c r="H30">
-        <v>0.744827586206897</v>
+        <v>0.75974025974026</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>590</v>
+        <v>596.6</v>
       </c>
       <c r="K30">
-        <v>18.5923645320197</v>
+        <v>18.3748462064252</v>
       </c>
       <c r="L30">
-        <v>7.25504811229149</v>
+        <v>6.42565042041947</v>
       </c>
       <c r="M30">
-        <v>37.0742928800535</v>
+        <v>36.4399136789143</v>
       </c>
       <c r="N30">
-        <v>3.15124822576605</v>
+        <v>3.0799272890421</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q30">
         <v>1863908.8</v>
@@ -2678,19 +2687,19 @@
         <v>5542493.4</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2722,25 +2731,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.455</v>
+        <v>0.47</v>
       </c>
       <c r="K31">
-        <v>0.0411099759187538</v>
+        <v>0.0296961442596107</v>
       </c>
       <c r="L31">
-        <v>-0.103235813583306</v>
+        <v>-0.108004853397094</v>
       </c>
       <c r="M31">
-        <v>0.104371154992199</v>
+        <v>0.0998025536955862</v>
       </c>
       <c r="N31">
-        <v>9.03515954258326</v>
+        <v>6.31832856587462</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1863908.8</v>
@@ -2749,16 +2758,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,7 +2787,7 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.889664319040077</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2790,25 +2799,25 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>103</v>
+        <v>108.24</v>
       </c>
       <c r="K32">
-        <v>3.40891895583859</v>
+        <v>2.37729403785289</v>
       </c>
       <c r="L32">
-        <v>-1.83264648434927</v>
+        <v>-5.46760380315661</v>
       </c>
       <c r="M32">
         <v>5.61471443682918</v>
       </c>
       <c r="N32">
-        <v>3.30963005421222</v>
+        <v>2.19631747769114</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1863908.8</v>
@@ -2817,16 +2826,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2846,7 +2855,7 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>0.889664319040077</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2858,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>5.97</v>
+        <v>5.52</v>
       </c>
       <c r="K33">
         <v>0.339487714140534</v>
       </c>
       <c r="L33">
-        <v>-0.39982356297582</v>
+        <v>-0.919226722680868</v>
       </c>
       <c r="M33">
         <v>0.593123608619845</v>
       </c>
       <c r="N33">
-        <v>5.68656137588834</v>
+        <v>6.15013974892272</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1863908.8</v>
@@ -2885,16 +2894,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2914,7 +2923,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.429013828493761</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2929,22 +2938,22 @@
         <v>0.4505</v>
       </c>
       <c r="K34">
-        <v>-0.008312248995983901</v>
+        <v>0.009264506601806799</v>
       </c>
       <c r="L34">
-        <v>-0.0443128412226004</v>
+        <v>-0.0325605862700918</v>
       </c>
       <c r="M34">
-        <v>0.0277748195021313</v>
+        <v>0.0328857112148956</v>
       </c>
       <c r="N34">
-        <v>-1.84511631431386</v>
+        <v>2.05649425123348</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1863908.8</v>
@@ -2953,16 +2962,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2982,7 +2991,7 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.9560192628459599</v>
+        <v>0.970342796764823</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2994,25 +3003,25 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>102</v>
+        <v>102.5</v>
       </c>
       <c r="K35">
-        <v>1.55416137805984</v>
+        <v>1.93412439193885</v>
       </c>
       <c r="L35">
-        <v>0.0552592861798386</v>
+        <v>0.301853690684661</v>
       </c>
       <c r="M35">
         <v>3.09646425957295</v>
       </c>
       <c r="N35">
-        <v>1.52368762554886</v>
+        <v>1.8869506262818</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1863908.8</v>
@@ -3021,16 +3030,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3050,7 +3059,7 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.963180864939849</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3062,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>5.393</v>
+        <v>5.5115</v>
       </c>
       <c r="K36">
-        <v>0.252184499314129</v>
+        <v>0.250450295275591</v>
       </c>
       <c r="L36">
-        <v>0.0473536172313144</v>
+        <v>-0.0069482394856538</v>
       </c>
       <c r="M36">
-        <v>0.539253326412848</v>
+        <v>0.497895993141775</v>
       </c>
       <c r="N36">
-        <v>4.67614499006358</v>
+        <v>4.54414034791963</v>
       </c>
       <c r="O36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1863908.8</v>
@@ -3089,16 +3098,16 @@
         <v>5542493.4</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
